--- a/Beraud_Quentin_performance_022024.xlsx
+++ b/Beraud_Quentin_performance_022024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a419fc9c26811ab/OpenClassRooms/Projet-8 Améiorez votre application avec des système dustrubués/00_Livrables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a419fc9c26811ab/OpenClassRooms/Projet-8 Améiorez votre application avec des système dustrubués/03_CodeDuProjet/JavaPathENProject8-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_906864ED3748286EC1E2F800634ECE0DD924BC05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56FAA79D-448B-485C-9DB7-D52E01BE4619}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_906864ED3748286EC1E2F800634ECE0DD924BC05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFF1DE10-8D1C-4DFD-98EA-991CD721F694}"/>
   <bookViews>
-    <workbookView xWindow="12425" yWindow="0" windowWidth="6850" windowHeight="10155" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Users</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Get Rewards</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
 </sst>
 </file>
@@ -300,16 +297,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>278</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>524</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,10 +668,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,10 +1237,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1251,10 +1248,10 @@
     <col min="3" max="3" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1266,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="1">
         <v>1000</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="1">
         <v>5000</v>
       </c>
@@ -1299,10 +1296,10 @@
         <v>376</v>
       </c>
       <c r="D5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="1">
         <v>10000</v>
       </c>
@@ -1310,13 +1307,10 @@
         <v>762</v>
       </c>
       <c r="D6" s="1">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="1">
         <v>50000</v>
       </c>
@@ -1324,10 +1318,10 @@
         <v>3791</v>
       </c>
       <c r="D7" s="1">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="1">
         <v>100000</v>
       </c>
@@ -1335,7 +1329,7 @@
         <v>7579</v>
       </c>
       <c r="D8" s="1">
-        <v>524</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -1351,8 +1345,8 @@
   </sheetPr>
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1401,7 +1395,7 @@
         <v>5820</v>
       </c>
       <c r="D5" s="1">
-        <v>154</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1412,7 +1406,7 @@
         <v>64020</v>
       </c>
       <c r="D6" s="1">
-        <v>312</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Beraud_Quentin_performance_022024.xlsx
+++ b/Beraud_Quentin_performance_022024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a419fc9c26811ab/OpenClassRooms/Projet-8 Améiorez votre application avec des système dustrubués/03_CodeDuProjet/JavaPathENProject8-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_906864ED3748286EC1E2F800634ECE0DD924BC05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFF1DE10-8D1C-4DFD-98EA-991CD721F694}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_906864ED3748286EC1E2F800634ECE0DD924BC05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B510C0C3-CFEF-4471-B58D-A758C7E5B1C9}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -297,16 +297,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>298</c:v>
+                  <c:v>301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,10 +668,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>436</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1296,7 +1296,7 @@
         <v>376</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1307,7 +1307,7 @@
         <v>762</v>
       </c>
       <c r="D6" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1318,7 +1318,7 @@
         <v>3791</v>
       </c>
       <c r="D7" s="1">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1329,7 +1329,7 @@
         <v>7579</v>
       </c>
       <c r="D8" s="1">
-        <v>600</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1395,7 +1395,7 @@
         <v>5820</v>
       </c>
       <c r="D5" s="1">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -1406,7 +1406,7 @@
         <v>64020</v>
       </c>
       <c r="D6" s="1">
-        <v>436</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/Beraud_Quentin_performance_022024.xlsx
+++ b/Beraud_Quentin_performance_022024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a419fc9c26811ab/OpenClassRooms/Projet-8 Améiorez votre application avec des système dustrubués/03_CodeDuProjet/JavaPathENProject8-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_906864ED3748286EC1E2F800634ECE0DD924BC05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B510C0C3-CFEF-4471-B58D-A758C7E5B1C9}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_906864ED3748286EC1E2F800634ECE0DD924BC05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C8C497-1B07-4164-B418-3FB751879244}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,17 @@
     <t>Improved Time</t>
   </si>
   <si>
-    <t>Get Location</t>
+    <t>Get Rewards</t>
   </si>
   <si>
-    <t>Get Rewards</t>
+    <t>GetLocation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -56,6 +56,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,15 +93,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -153,7 +190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Locations!$C$2</c:f>
+              <c:f>Locations!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -174,7 +211,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Locations!$B$3:$B$8</c:f>
+              <c:f>Locations!$B$7:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -201,7 +238,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Locations!$C$3:$C$8</c:f>
+              <c:f>Locations!$C$7:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -238,7 +275,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Locations!$D$2</c:f>
+              <c:f>Locations!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -259,7 +296,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Locations!$B$3:$B$8</c:f>
+              <c:f>Locations!$B$7:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -286,7 +323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Locations!$D$3:$D$8</c:f>
+              <c:f>Locations!$D$7:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -542,7 +579,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rewards!$C$2</c:f>
+              <c:f>Rewards!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -563,7 +600,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Rewards!$B$3:$B$6</c:f>
+              <c:f>Rewards!$B$11:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -584,7 +621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Rewards!$C$3:$C$6</c:f>
+              <c:f>Rewards!$C$11:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -615,7 +652,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Rewards!$D$2</c:f>
+              <c:f>Rewards!$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -636,7 +673,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Rewards!$B$3:$B$6</c:f>
+              <c:f>Rewards!$B$11:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -657,7 +694,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Rewards!$D$3:$D$6</c:f>
+              <c:f>Rewards!$D$11:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -866,11 +903,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>447221</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="5068207" cy="2807607"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
@@ -902,11 +939,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>393249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="4813752" cy="3755571"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart">
@@ -1237,10 +1274,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1253,86 +1290,98 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="1">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="3">
         <v>1000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C8" s="3">
         <v>75</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="1">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="3">
         <v>5000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C9" s="3">
         <v>376</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D9" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="1">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="3">
         <v>10000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C10" s="3">
         <v>762</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D10" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="1">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="3">
         <v>50000</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C11" s="3">
         <v>3791</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D11" s="3">
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="1">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="3">
         <v>100000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C12" s="3">
         <v>7579</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D12" s="3">
         <v>661</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1343,73 +1392,87 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="3" max="3" width="14.04296875" customWidth="1"/>
+    <col min="4" max="4" width="14.31640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>472</v>
+      </c>
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>472</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="1">
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="3">
         <v>10000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C13" s="3">
         <v>5820</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D13" s="3">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="1">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="3">
         <v>100000</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C14" s="3">
         <v>64020</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D14" s="3">
         <v>633</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
